--- a/RE_FRAME_WORK_FRUIT_PROJECT/Fruits.xlsx
+++ b/RE_FRAME_WORK_FRUIT_PROJECT/Fruits.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -25,16 +25,16 @@
     <t>Ingredients</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
     <t>Apple</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -70,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,41 +380,43 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="107.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/RE_FRAME_WORK_FRUIT_PROJECT/Fruits.xlsx
+++ b/RE_FRAME_WORK_FRUIT_PROJECT/Fruits.xlsx
@@ -16,7 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Fruit</t>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Banana</t>
   </si>
   <si>
     <t>Recipe</t>
@@ -28,13 +31,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Apple</t>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Fruits</t>
   </si>
 </sst>
 </file>
@@ -50,12 +50,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,9 +76,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,43 +387,44 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="107.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RE_FRAME_WORK_FRUIT_PROJECT/Fruits.xlsx
+++ b/RE_FRAME_WORK_FRUIT_PROJECT/Fruits.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Recipe</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Apple</t>
   </si>
   <si>
     <t>Banana</t>
   </si>
   <si>
-    <t>Recipe</t>
-  </si>
-  <si>
-    <t>Ingredients</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Grapes</t>
-  </si>
-  <si>
-    <t>Fruits</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,31 +400,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
